--- a/output/경기동로_W_가을_배출량/경기동로_W_가을_배출량_CO.xlsx
+++ b/output/경기동로_W_가을_배출량/경기동로_W_가을_배출량_CO.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>373.8302874405045</v>
+        <v>83.07339720900103</v>
       </c>
       <c r="C2">
-        <v>4.481486074462741</v>
+        <v>0.9958857943250535</v>
       </c>
       <c r="D2">
-        <v>49.93178558538418</v>
+        <v>11.0959523523076</v>
       </c>
       <c r="E2">
-        <v>23.72497060682599</v>
+        <v>5.272215690405778</v>
       </c>
       <c r="F2">
-        <v>17.44862914783148</v>
+        <v>3.877473143962551</v>
       </c>
       <c r="G2">
-        <v>215.4023306685803</v>
+        <v>47.86718459301785</v>
       </c>
       <c r="H2">
-        <v>7.095801654473116</v>
+        <v>1.576844812105137</v>
       </c>
       <c r="I2">
-        <v>691.9152911780624</v>
+        <v>153.758953595125</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>384.2282159653398</v>
+        <v>85.38404799229772</v>
       </c>
       <c r="C3">
-        <v>5.65056939823563</v>
+        <v>1.255682088496807</v>
       </c>
       <c r="D3">
-        <v>38.04326520791177</v>
+        <v>8.454058935091508</v>
       </c>
       <c r="E3">
-        <v>18.03097766118774</v>
+        <v>4.006883924708389</v>
       </c>
       <c r="F3">
-        <v>16.80713542916121</v>
+        <v>3.734918984258046</v>
       </c>
       <c r="G3">
-        <v>180.8315862402896</v>
+        <v>40.18479694228659</v>
       </c>
       <c r="H3">
-        <v>4.434876034045697</v>
+        <v>0.9855280075657108</v>
       </c>
       <c r="I3">
-        <v>648.0266259361715</v>
+        <v>144.0059168747048</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>392.6455866759208</v>
+        <v>87.25457481687125</v>
       </c>
       <c r="C4">
-        <v>6.235111060122074</v>
+        <v>1.385580235582683</v>
       </c>
       <c r="D4">
-        <v>27.34359686818659</v>
+        <v>6.076354859597021</v>
       </c>
       <c r="E4">
-        <v>24.67396943109902</v>
+        <v>5.483104318022007</v>
       </c>
       <c r="F4">
-        <v>15.90904422302282</v>
+        <v>3.535343160671739</v>
       </c>
       <c r="G4">
-        <v>90.41579312014481</v>
+        <v>20.09239847114329</v>
       </c>
       <c r="H4">
-        <v>4.434876034045697</v>
+        <v>0.9855280075657108</v>
       </c>
       <c r="I4">
-        <v>561.6579774125418</v>
+        <v>124.8128838694537</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>426.3150695182445</v>
+        <v>94.73668211516542</v>
       </c>
       <c r="C5">
-        <v>5.65056939823563</v>
+        <v>1.255682088496807</v>
       </c>
       <c r="D5">
-        <v>42.79867335890074</v>
+        <v>9.510816301977943</v>
       </c>
       <c r="E5">
-        <v>29.41896355246422</v>
+        <v>6.537547456103161</v>
       </c>
       <c r="F5">
-        <v>11.80348442353306</v>
+        <v>2.622996538562902</v>
       </c>
       <c r="G5">
-        <v>58.50433672479959</v>
+        <v>13.00096371662213</v>
       </c>
       <c r="H5">
-        <v>7.095801654473116</v>
+        <v>1.576844812105137</v>
       </c>
       <c r="I5">
-        <v>581.5868986306508</v>
+        <v>129.2415330290335</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>511.4790555311805</v>
+        <v>113.6620123402624</v>
       </c>
       <c r="C6">
-        <v>6.429958280750889</v>
+        <v>1.428879617944642</v>
       </c>
       <c r="D6">
-        <v>39.23211724565901</v>
+        <v>8.718248276813114</v>
       </c>
       <c r="E6">
-        <v>20.87797413400687</v>
+        <v>4.639549807557082</v>
       </c>
       <c r="F6">
-        <v>9.365808292586015</v>
+        <v>2.081290731685781</v>
       </c>
       <c r="G6">
-        <v>34.57074442829066</v>
+        <v>7.682387650731257</v>
       </c>
       <c r="H6">
-        <v>1.773950413618279</v>
+        <v>0.3942112030262843</v>
       </c>
       <c r="I6">
-        <v>623.7296083260923</v>
+        <v>138.6065796280205</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>443.6449503929697</v>
+        <v>98.58776675399326</v>
       </c>
       <c r="C7">
-        <v>1.363930544401704</v>
+        <v>0.3030956765337119</v>
       </c>
       <c r="D7">
-        <v>38.04326520791177</v>
+        <v>8.454058935091508</v>
       </c>
       <c r="E7">
-        <v>33.21495884955637</v>
+        <v>7.381101966568083</v>
       </c>
       <c r="F7">
-        <v>5.388547236830311</v>
+        <v>1.197454941517847</v>
       </c>
       <c r="G7">
-        <v>26.59288032945436</v>
+        <v>5.909528962100969</v>
       </c>
       <c r="H7">
-        <v>1.773950413618279</v>
+        <v>0.3942112030262843</v>
       </c>
       <c r="I7">
-        <v>550.0224829747425</v>
+        <v>122.2272184388317</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>354.0247092979613</v>
+        <v>78.67215762176917</v>
       </c>
       <c r="C8">
-        <v>5.066027736349185</v>
+        <v>1.12578394141093</v>
       </c>
       <c r="D8">
-        <v>20.21048464170314</v>
+        <v>4.491218809267362</v>
       </c>
       <c r="E8">
-        <v>27.52096590391815</v>
+        <v>6.115770200870699</v>
       </c>
       <c r="F8">
-        <v>6.158339699234638</v>
+        <v>1.368519933163253</v>
       </c>
       <c r="G8">
-        <v>31.91145639534523</v>
+        <v>7.091434754521161</v>
       </c>
       <c r="H8">
-        <v>3.547900827236558</v>
+        <v>0.7884224060525685</v>
       </c>
       <c r="I8">
-        <v>448.4398845017482</v>
+        <v>99.65330766705516</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>310.9475768379296</v>
+        <v>69.09946151953991</v>
       </c>
       <c r="C9">
-        <v>7.793888825152594</v>
+        <v>1.731975294478354</v>
       </c>
       <c r="D9">
-        <v>23.77704075494486</v>
+        <v>5.283786834432191</v>
       </c>
       <c r="E9">
-        <v>41.75594826801375</v>
+        <v>9.279099615114164</v>
       </c>
       <c r="F9">
-        <v>3.720663568287595</v>
+        <v>0.826814126286132</v>
       </c>
       <c r="G9">
-        <v>45.20789656007241</v>
+        <v>10.04619923557165</v>
       </c>
       <c r="H9">
-        <v>1.773950413618279</v>
+        <v>0.3942112030262843</v>
       </c>
       <c r="I9">
-        <v>434.9769652280191</v>
+        <v>96.6615478284487</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>273.8121178206612</v>
+        <v>60.84713729348024</v>
       </c>
       <c r="C10">
-        <v>3.312402750689852</v>
+        <v>0.7360895001533004</v>
       </c>
       <c r="D10">
-        <v>17.83278056620865</v>
+        <v>3.962840125824143</v>
       </c>
       <c r="E10">
-        <v>25.62296825537207</v>
+        <v>5.693992945638238</v>
       </c>
       <c r="F10">
-        <v>3.592364824553541</v>
+        <v>0.798303294345231</v>
       </c>
       <c r="G10">
-        <v>23.93359229650892</v>
+        <v>5.318576065890873</v>
       </c>
       <c r="H10">
-        <v>5.321851240854837</v>
+        <v>1.182633609078853</v>
       </c>
       <c r="I10">
-        <v>353.4280777548491</v>
+        <v>78.53957283441086</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>154.4835095118376</v>
+        <v>34.32966878040837</v>
       </c>
       <c r="C11">
-        <v>1.558777765030519</v>
+        <v>0.3463950588956708</v>
       </c>
       <c r="D11">
-        <v>5.944260188736216</v>
+        <v>1.320946708608048</v>
       </c>
       <c r="E11">
-        <v>17.08197883691471</v>
+        <v>3.795995297092157</v>
       </c>
       <c r="F11">
-        <v>3.207468593351376</v>
+        <v>0.7127707985225276</v>
       </c>
       <c r="G11">
-        <v>13.29644016472718</v>
+        <v>2.954764481050484</v>
       </c>
       <c r="H11">
-        <v>4.434876034045697</v>
+        <v>0.9855280075657108</v>
       </c>
       <c r="I11">
-        <v>200.0073110946433</v>
+        <v>44.44606913214297</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>105.9598430626066</v>
+        <v>23.54663179169036</v>
       </c>
       <c r="C12">
-        <v>1.558777765030519</v>
+        <v>0.3463950588956708</v>
       </c>
       <c r="D12">
-        <v>4.755408150988972</v>
+        <v>1.056757366886439</v>
       </c>
       <c r="E12">
-        <v>6.642991769911276</v>
+        <v>1.476220393313618</v>
       </c>
       <c r="F12">
-        <v>1.539584924808659</v>
+        <v>0.3421299832908133</v>
       </c>
       <c r="G12">
-        <v>10.63715213178175</v>
+        <v>2.363811584840387</v>
       </c>
       <c r="H12">
-        <v>1.773950413618279</v>
+        <v>0.3942112030262843</v>
       </c>
       <c r="I12">
-        <v>132.8677082187461</v>
+        <v>29.52615738194357</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>65.3584078703929</v>
+        <v>14.52409063786509</v>
       </c>
       <c r="C13">
-        <v>1.363930544401704</v>
+        <v>0.3030956765337119</v>
       </c>
       <c r="D13">
-        <v>1.188852037747243</v>
+        <v>0.2641893417216096</v>
       </c>
       <c r="F13">
-        <v>1.411286181074606</v>
+        <v>0.3136191513499122</v>
       </c>
       <c r="G13">
-        <v>7.977864098836307</v>
+        <v>1.77285868863029</v>
       </c>
       <c r="H13">
-        <v>0.8869752068091395</v>
+        <v>0.1971056015131421</v>
       </c>
       <c r="I13">
-        <v>78.18731593926188</v>
+        <v>17.37495909761375</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>52.97992153130331</v>
+        <v>11.77331589584518</v>
       </c>
       <c r="C14">
-        <v>1.753624985659334</v>
+        <v>0.3896944412576296</v>
       </c>
       <c r="D14">
-        <v>5.944260188736216</v>
+        <v>1.320946708608048</v>
       </c>
       <c r="F14">
-        <v>1.796182412276771</v>
+        <v>0.3991516471726155</v>
       </c>
       <c r="G14">
-        <v>7.977864098836307</v>
+        <v>1.77285868863029</v>
       </c>
       <c r="H14">
-        <v>1.773950413618279</v>
+        <v>0.3942112030262843</v>
       </c>
       <c r="I14">
-        <v>72.22580363043022</v>
+        <v>16.05017858454005</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,22 +809,22 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>39.61115628508662</v>
+        <v>8.802479174463688</v>
       </c>
       <c r="C15">
-        <v>0.9742361031440743</v>
+        <v>0.2164969118097943</v>
       </c>
       <c r="D15">
-        <v>2.377704075494486</v>
+        <v>0.5283786834432193</v>
       </c>
       <c r="F15">
-        <v>1.154688693606495</v>
+        <v>0.2565974874681099</v>
       </c>
       <c r="G15">
-        <v>15.95572819767261</v>
+        <v>3.54571737726058</v>
       </c>
       <c r="I15">
-        <v>60.07351335500428</v>
+        <v>13.34966963444539</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,25 +832,25 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>34.16462229588717</v>
+        <v>7.59213828797493</v>
       </c>
       <c r="C16">
-        <v>0.9742361031440743</v>
+        <v>0.2164969118097943</v>
       </c>
       <c r="D16">
-        <v>2.377704075494486</v>
+        <v>0.5283786834432193</v>
       </c>
       <c r="E16">
-        <v>4.744994121365197</v>
+        <v>1.054443138081155</v>
       </c>
       <c r="F16">
-        <v>1.02638994987244</v>
+        <v>0.2280866555272089</v>
       </c>
       <c r="G16">
-        <v>13.29644016472718</v>
+        <v>2.954764481050484</v>
       </c>
       <c r="I16">
-        <v>56.58438671049054</v>
+        <v>12.57430815788679</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -858,25 +858,25 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>65.3584078703929</v>
+        <v>14.52409063786509</v>
       </c>
       <c r="C17">
-        <v>1.169083323772889</v>
+        <v>0.2597962941717531</v>
       </c>
       <c r="D17">
-        <v>9.510816301977943</v>
+        <v>2.113514733772877</v>
       </c>
       <c r="E17">
-        <v>0.9489988242730393</v>
+        <v>0.210888627616231</v>
       </c>
       <c r="F17">
-        <v>2.052779899744879</v>
+        <v>0.4561733110544178</v>
       </c>
       <c r="G17">
-        <v>13.29644016472718</v>
+        <v>2.954764481050484</v>
       </c>
       <c r="I17">
-        <v>92.33652638488883</v>
+        <v>20.51922808553085</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -884,28 +884,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>217.8613595679762</v>
+        <v>48.41363545955025</v>
       </c>
       <c r="C18">
-        <v>1.753624985659334</v>
+        <v>0.3896944412576296</v>
       </c>
       <c r="D18">
-        <v>27.34359686818659</v>
+        <v>6.076354859597021</v>
       </c>
       <c r="E18">
-        <v>7.591990594184314</v>
+        <v>1.687109020929848</v>
       </c>
       <c r="F18">
-        <v>6.286638442968696</v>
+        <v>1.397030765104155</v>
       </c>
       <c r="G18">
-        <v>50.52647262596327</v>
+        <v>11.22810502799184</v>
       </c>
       <c r="H18">
-        <v>0.8869752068091395</v>
+        <v>0.1971056015131421</v>
       </c>
       <c r="I18">
-        <v>312.2506582917476</v>
+        <v>69.38903517594389</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -913,28 +913,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>345.6073385873803</v>
+        <v>76.80163079719571</v>
       </c>
       <c r="C19">
-        <v>1.363930544401704</v>
+        <v>0.3030956765337119</v>
       </c>
       <c r="D19">
-        <v>30.91015298142831</v>
+        <v>6.868922884761849</v>
       </c>
       <c r="E19">
-        <v>40.80694944374069</v>
+        <v>9.068210987497933</v>
       </c>
       <c r="F19">
-        <v>10.64879572992657</v>
+        <v>2.366399051094792</v>
       </c>
       <c r="G19">
-        <v>77.11935295541764</v>
+        <v>17.13763399009281</v>
       </c>
       <c r="H19">
-        <v>2.660925620427419</v>
+        <v>0.5913168045394265</v>
       </c>
       <c r="I19">
-        <v>509.1174458627226</v>
+        <v>113.1372101917162</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -942,25 +942,25 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>419.8782566219178</v>
+        <v>93.30627924931505</v>
       </c>
       <c r="C20">
-        <v>3.312402750689852</v>
+        <v>0.7360895001533004</v>
       </c>
       <c r="D20">
-        <v>24.96589279269209</v>
+        <v>5.547976176153798</v>
       </c>
       <c r="E20">
-        <v>36.06195532237549</v>
+        <v>8.013767849416778</v>
       </c>
       <c r="F20">
-        <v>8.339418342713573</v>
+        <v>1.853204076158572</v>
       </c>
       <c r="G20">
-        <v>58.50433672479959</v>
+        <v>13.00096371662213</v>
       </c>
       <c r="I20">
-        <v>551.0622625551885</v>
+        <v>122.4582805678196</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -968,28 +968,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>452.5574605571142</v>
+        <v>100.5683245682476</v>
       </c>
       <c r="C21">
-        <v>4.481486074462741</v>
+        <v>0.9958857943250535</v>
       </c>
       <c r="D21">
-        <v>40.42096928340628</v>
+        <v>8.982437618534723</v>
       </c>
       <c r="E21">
-        <v>29.41896355246422</v>
+        <v>6.537547456103161</v>
       </c>
       <c r="F21">
-        <v>10.00730201125629</v>
+        <v>2.223844891390287</v>
       </c>
       <c r="G21">
-        <v>71.80077688952676</v>
+        <v>15.95572819767261</v>
       </c>
       <c r="H21">
-        <v>7.982776861282256</v>
+        <v>1.773950413618279</v>
       </c>
       <c r="I21">
-        <v>616.6697352295129</v>
+        <v>137.0377189398917</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -997,28 +997,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>398.5872601186836</v>
+        <v>88.5749466930408</v>
       </c>
       <c r="C22">
-        <v>6.235111060122074</v>
+        <v>1.385580235582683</v>
       </c>
       <c r="D22">
-        <v>52.30948966087869</v>
+        <v>11.62433103575082</v>
       </c>
       <c r="E22">
-        <v>24.67396943109902</v>
+        <v>5.483104318022007</v>
       </c>
       <c r="F22">
-        <v>16.42223919795903</v>
+        <v>3.649386488435343</v>
       </c>
       <c r="G22">
-        <v>162.2165700096716</v>
+        <v>36.04812666881591</v>
       </c>
       <c r="H22">
-        <v>3.547900827236558</v>
+        <v>0.7884224060525685</v>
       </c>
       <c r="I22">
-        <v>663.9925403056504</v>
+        <v>147.5538978457001</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1026,28 +1026,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>332.7337127947274</v>
+        <v>73.94082506549495</v>
       </c>
       <c r="C23">
-        <v>5.65056939823563</v>
+        <v>1.255682088496807</v>
       </c>
       <c r="D23">
-        <v>24.96589279269209</v>
+        <v>5.547976176153798</v>
       </c>
       <c r="E23">
-        <v>21.8269729582799</v>
+        <v>4.850438435173313</v>
       </c>
       <c r="F23">
-        <v>17.32033040409743</v>
+        <v>3.848962312021651</v>
       </c>
       <c r="G23">
-        <v>207.4244665697439</v>
+        <v>46.09432590438756</v>
       </c>
       <c r="H23">
-        <v>7.095801654473116</v>
+        <v>1.576844812105137</v>
       </c>
       <c r="I23">
-        <v>617.0177465722495</v>
+        <v>137.1150547938332</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1055,28 +1055,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>309.462158477239</v>
+        <v>68.76936855049756</v>
       </c>
       <c r="C24">
-        <v>5.65056939823563</v>
+        <v>1.255682088496807</v>
       </c>
       <c r="D24">
-        <v>28.53244890593383</v>
+        <v>6.34054420131863</v>
       </c>
       <c r="E24">
-        <v>20.87797413400687</v>
+        <v>4.639549807557082</v>
       </c>
       <c r="F24">
-        <v>16.55053794169308</v>
+        <v>3.677897320376244</v>
       </c>
       <c r="G24">
-        <v>247.3137870639256</v>
+        <v>54.958619347539</v>
       </c>
       <c r="H24">
-        <v>4.434876034045697</v>
+        <v>0.9855280075657108</v>
       </c>
       <c r="I24">
-        <v>632.8223519550797</v>
+        <v>140.627189323351</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1084,28 +1084,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>332.2385733411637</v>
+        <v>73.83079407581417</v>
       </c>
       <c r="C25">
-        <v>7.599041604523776</v>
+        <v>1.688675912116395</v>
       </c>
       <c r="D25">
-        <v>34.47670909467003</v>
+        <v>7.661490909926677</v>
       </c>
       <c r="E25">
-        <v>21.8269729582799</v>
+        <v>4.850438435173313</v>
       </c>
       <c r="F25">
-        <v>13.59966683580983</v>
+        <v>3.022148185735519</v>
       </c>
       <c r="G25">
-        <v>255.2916511627618</v>
+        <v>56.73147803616929</v>
       </c>
       <c r="H25">
-        <v>0.8869752068091395</v>
+        <v>0.1971056015131421</v>
       </c>
       <c r="I25">
-        <v>665.9195902040182</v>
+        <v>147.9821311564485</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1113,28 +1113,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>369.869171811996</v>
+        <v>82.19314929155466</v>
       </c>
       <c r="C26">
-        <v>9.157819369554298</v>
+        <v>2.035070971012066</v>
       </c>
       <c r="D26">
-        <v>45.17637743439526</v>
+        <v>10.03919498542116</v>
       </c>
       <c r="E26">
-        <v>19.92897530973383</v>
+        <v>4.428661179940852</v>
       </c>
       <c r="F26">
-        <v>15.90904422302282</v>
+        <v>3.535343160671739</v>
       </c>
       <c r="G26">
-        <v>236.6766349321438</v>
+        <v>52.59480776269861</v>
       </c>
       <c r="H26">
-        <v>3.547900827236558</v>
+        <v>0.7884224060525685</v>
       </c>
       <c r="I26">
-        <v>700.2659239080824</v>
+        <v>155.6146497573517</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1142,28 +1142,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>365.4129167299238</v>
+        <v>81.20287038442754</v>
       </c>
       <c r="C27">
-        <v>8.378430487039036</v>
+        <v>1.86187344156423</v>
       </c>
       <c r="D27">
-        <v>41.60982132115348</v>
+        <v>9.246626960256332</v>
       </c>
       <c r="E27">
-        <v>18.03097766118774</v>
+        <v>4.006883924708389</v>
       </c>
       <c r="F27">
-        <v>16.03734296675688</v>
+        <v>3.56385399261264</v>
       </c>
       <c r="G27">
-        <v>162.2165700096716</v>
+        <v>36.04812666881591</v>
       </c>
       <c r="H27">
-        <v>15.07857851575537</v>
+        <v>3.350795225723417</v>
       </c>
       <c r="I27">
-        <v>626.7646376914879</v>
+        <v>139.2810305981085</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1171,28 +1171,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>381.2573792439583</v>
+        <v>84.72386205421297</v>
       </c>
       <c r="C28">
-        <v>8.183583266410222</v>
+        <v>1.818574059202272</v>
       </c>
       <c r="D28">
-        <v>45.17637743439526</v>
+        <v>10.03919498542116</v>
       </c>
       <c r="E28">
-        <v>22.77597178255295</v>
+        <v>5.061327062789545</v>
       </c>
       <c r="F28">
-        <v>15.52414799182066</v>
+        <v>3.449810664849035</v>
       </c>
       <c r="G28">
-        <v>199.4466024709076</v>
+        <v>44.32146721575726</v>
       </c>
       <c r="H28">
-        <v>6.208826447663977</v>
+        <v>1.379739210591995</v>
       </c>
       <c r="I28">
-        <v>678.5728886377091</v>
+        <v>150.7939752528243</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1200,28 +1200,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>356.5004065657792</v>
+        <v>79.22231257017323</v>
       </c>
       <c r="C29">
-        <v>7.014499942637335</v>
+        <v>1.558777765030519</v>
       </c>
       <c r="D29">
-        <v>40.42096928340628</v>
+        <v>8.982437618534723</v>
       </c>
       <c r="E29">
-        <v>25.62296825537207</v>
+        <v>5.693992945638238</v>
       </c>
       <c r="F29">
-        <v>10.64879572992657</v>
+        <v>2.366399051094792</v>
       </c>
       <c r="G29">
-        <v>162.2165700096716</v>
+        <v>36.04812666881591</v>
       </c>
       <c r="H29">
-        <v>4.434876034045697</v>
+        <v>0.9855280075657108</v>
       </c>
       <c r="I29">
-        <v>606.8590858208388</v>
+        <v>134.8575746268531</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1229,28 +1229,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>405.519212468574</v>
+        <v>90.11538054857198</v>
       </c>
       <c r="C30">
-        <v>3.117555530061037</v>
+        <v>0.6927901177913416</v>
       </c>
       <c r="D30">
-        <v>46.36522947214247</v>
+        <v>10.30338432714277</v>
       </c>
       <c r="E30">
-        <v>18.03097766118774</v>
+        <v>4.006883924708389</v>
       </c>
       <c r="F30">
-        <v>10.2638994987244</v>
+        <v>2.280866555272089</v>
       </c>
       <c r="G30">
-        <v>154.2387059108353</v>
+        <v>34.27526798018561</v>
       </c>
       <c r="H30">
-        <v>1.773950413618279</v>
+        <v>0.3942112030262843</v>
       </c>
       <c r="I30">
-        <v>639.3095309551433</v>
+        <v>142.0687846566985</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1258,25 +1258,25 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>395.1212839437388</v>
+        <v>87.80472976527528</v>
       </c>
       <c r="C31">
-        <v>0.3896944412576296</v>
+        <v>0.0865987647239177</v>
       </c>
       <c r="D31">
-        <v>20.21048464170314</v>
+        <v>4.491218809267362</v>
       </c>
       <c r="E31">
-        <v>34.16395767382942</v>
+        <v>7.591990594184314</v>
       </c>
       <c r="F31">
-        <v>5.388547236830311</v>
+        <v>1.197454941517847</v>
       </c>
       <c r="G31">
-        <v>119.6679614825446</v>
+        <v>26.59288032945437</v>
       </c>
       <c r="I31">
-        <v>574.9419294199039</v>
+        <v>127.7648732044231</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1284,25 +1284,25 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>351.5490120301434</v>
+        <v>78.12200267336523</v>
       </c>
       <c r="C32">
-        <v>1.753624985659334</v>
+        <v>0.3896944412576296</v>
       </c>
       <c r="D32">
-        <v>26.15474483043934</v>
+        <v>5.812165517875408</v>
       </c>
       <c r="E32">
-        <v>39.85795061946765</v>
+        <v>8.857322359881703</v>
       </c>
       <c r="F32">
-        <v>5.645144724298422</v>
+        <v>1.254476605399649</v>
       </c>
       <c r="G32">
-        <v>93.07508115309024</v>
+        <v>20.68335136735339</v>
       </c>
       <c r="I32">
-        <v>518.0355583430984</v>
+        <v>115.119012965133</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1310,25 +1310,25 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>280.2489307169875</v>
+        <v>62.27754015933056</v>
       </c>
       <c r="C33">
-        <v>3.117555530061037</v>
+        <v>0.6927901177913416</v>
       </c>
       <c r="D33">
-        <v>27.34359686818659</v>
+        <v>6.076354859597021</v>
       </c>
       <c r="E33">
-        <v>33.21495884955637</v>
+        <v>7.381101966568083</v>
       </c>
       <c r="F33">
-        <v>3.207468593351376</v>
+        <v>0.7127707985225276</v>
       </c>
       <c r="G33">
-        <v>39.88932049418153</v>
+        <v>8.864293443151453</v>
       </c>
       <c r="I33">
-        <v>387.0218310523244</v>
+        <v>86.00485134496098</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1336,25 +1336,25 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>220.8321962893576</v>
+        <v>49.07382139763504</v>
       </c>
       <c r="C34">
-        <v>1.753624985659334</v>
+        <v>0.3896944412576296</v>
       </c>
       <c r="D34">
-        <v>16.6439285284614</v>
+        <v>3.698650784102534</v>
       </c>
       <c r="E34">
-        <v>27.52096590391815</v>
+        <v>6.115770200870699</v>
       </c>
       <c r="F34">
-        <v>1.667883668542715</v>
+        <v>0.3706408152317144</v>
       </c>
       <c r="G34">
-        <v>37.2300324612361</v>
+        <v>8.273340546941357</v>
       </c>
       <c r="I34">
-        <v>305.6486318371753</v>
+        <v>67.92191818603898</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1362,25 +1362,25 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>145.0758598941296</v>
+        <v>32.23907997647326</v>
       </c>
       <c r="C35">
-        <v>1.363930544401704</v>
+        <v>0.3030956765337119</v>
       </c>
       <c r="D35">
-        <v>8.321964264230701</v>
+        <v>1.849325392051267</v>
       </c>
       <c r="E35">
-        <v>18.97997648546079</v>
+        <v>4.217772552324621</v>
       </c>
       <c r="F35">
-        <v>2.694273618415155</v>
+        <v>0.5987274707589235</v>
       </c>
       <c r="G35">
-        <v>55.84504869185415</v>
+        <v>12.41001082041203</v>
       </c>
       <c r="I35">
-        <v>232.2810534984921</v>
+        <v>51.61801188855382</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1388,28 +1388,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>103.9792852483523</v>
+        <v>23.10650783296718</v>
       </c>
       <c r="C36">
-        <v>0.7793888825152593</v>
+        <v>0.1731975294478354</v>
       </c>
       <c r="D36">
-        <v>7.133112226483457</v>
+        <v>1.585136050329657</v>
       </c>
       <c r="E36">
-        <v>7.591990594184314</v>
+        <v>1.687109020929848</v>
       </c>
       <c r="F36">
-        <v>1.924481156010825</v>
+        <v>0.4276624791135168</v>
       </c>
       <c r="G36">
-        <v>29.2521683623998</v>
+        <v>6.500481858311065</v>
       </c>
       <c r="H36">
-        <v>0.8869752068091395</v>
+        <v>0.1971056015131421</v>
       </c>
       <c r="I36">
-        <v>151.5474016767551</v>
+        <v>33.67720037261225</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1417,22 +1417,22 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>62.88271060257496</v>
+        <v>13.97393568946111</v>
       </c>
       <c r="C37">
-        <v>0.5845416618864444</v>
+        <v>0.1298981470858765</v>
       </c>
       <c r="E37">
-        <v>0.9489988242730393</v>
+        <v>0.210888627616231</v>
       </c>
       <c r="F37">
-        <v>1.924481156010825</v>
+        <v>0.4276624791135168</v>
       </c>
       <c r="G37">
-        <v>31.91145639534523</v>
+        <v>7.091434754521161</v>
       </c>
       <c r="I37">
-        <v>98.25218864009049</v>
+        <v>21.83381969779789</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1440,25 +1440,25 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>44.5625508207224</v>
+        <v>9.902789071271654</v>
       </c>
       <c r="C38">
-        <v>1.169083323772889</v>
+        <v>0.2597962941717531</v>
       </c>
       <c r="D38">
-        <v>3.566556113241728</v>
+        <v>0.7925680251648287</v>
       </c>
       <c r="E38">
-        <v>0.9489988242730393</v>
+        <v>0.210888627616231</v>
       </c>
       <c r="F38">
-        <v>2.052779899744879</v>
+        <v>0.4561733110544178</v>
       </c>
       <c r="G38">
-        <v>10.63715213178175</v>
+        <v>2.363811584840387</v>
       </c>
       <c r="I38">
-        <v>62.93712111353668</v>
+        <v>13.98602691411927</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1466,22 +1466,22 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>30.6986461209421</v>
+        <v>6.821921360209361</v>
       </c>
       <c r="C39">
-        <v>0.3896944412576296</v>
+        <v>0.0865987647239177</v>
       </c>
       <c r="D39">
-        <v>5.944260188736216</v>
+        <v>1.320946708608048</v>
       </c>
       <c r="F39">
-        <v>0.2565974874681099</v>
+        <v>0.05702166388180223</v>
       </c>
       <c r="G39">
-        <v>26.59288032945436</v>
+        <v>5.909528962100969</v>
       </c>
       <c r="I39">
-        <v>63.88207856785841</v>
+        <v>14.1960174595241</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,25 +1489,25 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>24.75697267817911</v>
+        <v>5.501549484039803</v>
       </c>
       <c r="C40">
-        <v>0.7793888825152593</v>
+        <v>0.1731975294478354</v>
       </c>
       <c r="D40">
-        <v>1.188852037747243</v>
+        <v>0.2641893417216096</v>
       </c>
       <c r="E40">
-        <v>4.744994121365197</v>
+        <v>1.054443138081155</v>
       </c>
       <c r="F40">
-        <v>1.154688693606495</v>
+        <v>0.2565974874681099</v>
       </c>
       <c r="G40">
-        <v>13.29644016472718</v>
+        <v>2.954764481050484</v>
       </c>
       <c r="I40">
-        <v>45.92133657814048</v>
+        <v>10.204741461809</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1515,25 +1515,25 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>65.3584078703929</v>
+        <v>14.52409063786509</v>
       </c>
       <c r="C41">
-        <v>0.7793888825152593</v>
+        <v>0.1731975294478354</v>
       </c>
       <c r="D41">
-        <v>4.755408150988972</v>
+        <v>1.056757366886439</v>
       </c>
       <c r="E41">
-        <v>2.846996472819119</v>
+        <v>0.6326658828486932</v>
       </c>
       <c r="F41">
-        <v>1.667883668542715</v>
+        <v>0.3706408152317144</v>
       </c>
       <c r="G41">
-        <v>10.63715213178175</v>
+        <v>2.363811584840387</v>
       </c>
       <c r="I41">
-        <v>86.0452371770407</v>
+        <v>19.12116381712016</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1541,25 +1541,25 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>174.289087654381</v>
+        <v>38.7309083676402</v>
       </c>
       <c r="C42">
-        <v>0.1948472206288148</v>
+        <v>0.04329938236195885</v>
       </c>
       <c r="D42">
-        <v>21.39933667945037</v>
+        <v>4.755408150988972</v>
       </c>
       <c r="E42">
-        <v>10.43898706700344</v>
+        <v>2.319774903778541</v>
       </c>
       <c r="F42">
-        <v>5.388547236830311</v>
+        <v>1.197454941517847</v>
       </c>
       <c r="G42">
-        <v>39.88932049418153</v>
+        <v>8.864293443151453</v>
       </c>
       <c r="I42">
-        <v>251.6001263524754</v>
+        <v>55.91113918943898</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1567,25 +1567,25 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>286.1906041597507</v>
+        <v>63.59791203550012</v>
       </c>
       <c r="C43">
-        <v>1.169083323772889</v>
+        <v>0.2597962941717531</v>
       </c>
       <c r="D43">
-        <v>24.96589279269209</v>
+        <v>5.547976176153798</v>
       </c>
       <c r="E43">
-        <v>36.06195532237549</v>
+        <v>8.013767849416778</v>
       </c>
       <c r="F43">
-        <v>11.16199070486278</v>
+        <v>2.480442378858396</v>
       </c>
       <c r="G43">
-        <v>74.4600649224722</v>
+        <v>16.54668109388271</v>
       </c>
       <c r="I43">
-        <v>434.0095912259262</v>
+        <v>96.44657582798355</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,28 +1593,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>407.0046308292648</v>
+        <v>90.44547351761437</v>
       </c>
       <c r="C44">
-        <v>1.948472206288149</v>
+        <v>0.4329938236195885</v>
       </c>
       <c r="D44">
-        <v>20.21048464170314</v>
+        <v>4.491218809267362</v>
       </c>
       <c r="E44">
-        <v>36.06195532237549</v>
+        <v>8.013767849416778</v>
       </c>
       <c r="F44">
-        <v>5.90174221176653</v>
+        <v>1.311498269281451</v>
       </c>
       <c r="G44">
-        <v>55.84504869185415</v>
+        <v>12.41001082041203</v>
       </c>
       <c r="H44">
-        <v>1.773950413618279</v>
+        <v>0.3942112030262843</v>
       </c>
       <c r="I44">
-        <v>528.7462843168705</v>
+        <v>117.4991742926379</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1622,28 +1622,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>390.1698894081029</v>
+        <v>86.70441986846733</v>
       </c>
       <c r="C45">
-        <v>6.235111060122074</v>
+        <v>1.385580235582683</v>
       </c>
       <c r="D45">
-        <v>29.72130094368107</v>
+        <v>6.604733543040238</v>
       </c>
       <c r="E45">
-        <v>20.87797413400687</v>
+        <v>4.639549807557082</v>
       </c>
       <c r="F45">
-        <v>9.87900326752224</v>
+        <v>2.195334059449386</v>
       </c>
       <c r="G45">
-        <v>101.0529452519265</v>
+        <v>22.45621005598368</v>
       </c>
       <c r="H45">
-        <v>4.434876034045697</v>
+        <v>0.9855280075657108</v>
       </c>
       <c r="I45">
-        <v>562.3711000994074</v>
+        <v>124.9713555776461</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1651,28 +1651,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>368.3837534513052</v>
+        <v>81.86305632251231</v>
       </c>
       <c r="C46">
-        <v>3.896944412576297</v>
+        <v>0.8659876472391771</v>
       </c>
       <c r="D46">
-        <v>32.09900501917556</v>
+        <v>7.133112226483457</v>
       </c>
       <c r="E46">
-        <v>30.36796237673726</v>
+        <v>6.748436083719393</v>
       </c>
       <c r="F46">
-        <v>13.08647186087361</v>
+        <v>2.908104857971913</v>
       </c>
       <c r="G46">
-        <v>135.6236896802172</v>
+        <v>30.13859770671493</v>
       </c>
       <c r="H46">
-        <v>3.547900827236558</v>
+        <v>0.7884224060525685</v>
       </c>
       <c r="I46">
-        <v>587.0057276281217</v>
+        <v>130.4457172506937</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1680,28 +1680,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>285.2003252526234</v>
+        <v>63.37785005613856</v>
       </c>
       <c r="C47">
-        <v>6.235111060122074</v>
+        <v>1.385580235582683</v>
       </c>
       <c r="D47">
-        <v>23.77704075494486</v>
+        <v>5.283786834432191</v>
       </c>
       <c r="E47">
-        <v>25.62296825537207</v>
+        <v>5.693992945638238</v>
       </c>
       <c r="F47">
-        <v>16.16564171049093</v>
+        <v>3.592364824553541</v>
       </c>
       <c r="G47">
-        <v>146.2608418119989</v>
+        <v>32.50240929155531</v>
       </c>
       <c r="H47">
-        <v>13.30462810213709</v>
+        <v>2.956584022697132</v>
       </c>
       <c r="I47">
-        <v>516.5665569476894</v>
+        <v>114.7925682105977</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1709,28 +1709,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>314.9086924664382</v>
+        <v>69.97970943698627</v>
       </c>
       <c r="C48">
-        <v>7.404194383894963</v>
+        <v>1.645376529754436</v>
       </c>
       <c r="D48">
-        <v>40.42096928340628</v>
+        <v>8.982437618534723</v>
       </c>
       <c r="E48">
-        <v>22.77597178255295</v>
+        <v>5.061327062789545</v>
       </c>
       <c r="F48">
-        <v>13.59966683580983</v>
+        <v>3.022148185735519</v>
       </c>
       <c r="G48">
-        <v>111.6900973837083</v>
+        <v>24.82002164082407</v>
       </c>
       <c r="H48">
-        <v>1.773950413618279</v>
+        <v>0.3942112030262843</v>
       </c>
       <c r="I48">
-        <v>512.5735425494288</v>
+        <v>113.9052316776508</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1738,28 +1738,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>332.2385733411637</v>
+        <v>73.83079407581417</v>
       </c>
       <c r="C49">
-        <v>7.599041604523776</v>
+        <v>1.688675912116395</v>
       </c>
       <c r="D49">
-        <v>34.47670909467003</v>
+        <v>7.661490909926677</v>
       </c>
       <c r="E49">
-        <v>21.8269729582799</v>
+        <v>4.850438435173313</v>
       </c>
       <c r="F49">
-        <v>13.59966683580983</v>
+        <v>3.022148185735519</v>
       </c>
       <c r="G49">
-        <v>255.2916511627618</v>
+        <v>56.73147803616929</v>
       </c>
       <c r="H49">
-        <v>0.8869752068091395</v>
+        <v>0.1971056015131421</v>
       </c>
       <c r="I49">
-        <v>665.9195902040182</v>
+        <v>147.9821311564485</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_W_가을_배출량/경기동로_W_가을_배출량_CO.xlsx
+++ b/output/경기동로_W_가을_배출량/경기동로_W_가을_배출량_CO.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>83.07339720900103</v>
+        <v>224.3144858455677</v>
       </c>
       <c r="C2">
-        <v>0.9958857943250535</v>
+        <v>4.481486074462741</v>
       </c>
       <c r="D2">
-        <v>11.0959523523076</v>
+        <v>49.76707242632439</v>
       </c>
       <c r="E2">
-        <v>5.272215690405778</v>
+        <v>23.72497060682599</v>
       </c>
       <c r="F2">
-        <v>3.877473143962551</v>
+        <v>17.12758655104504</v>
       </c>
       <c r="G2">
-        <v>47.86718459301785</v>
+        <v>215.1811145128814</v>
       </c>
       <c r="H2">
-        <v>1.576844812105137</v>
+        <v>7.095801654473116</v>
       </c>
       <c r="I2">
-        <v>153.758953595125</v>
+        <v>541.6925176715805</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>85.38404799229772</v>
+        <v>230.5536967101463</v>
       </c>
       <c r="C3">
-        <v>1.255682088496807</v>
+        <v>5.65056939823563</v>
       </c>
       <c r="D3">
-        <v>8.454058935091508</v>
+        <v>37.91776946767572</v>
       </c>
       <c r="E3">
-        <v>4.006883924708389</v>
+        <v>18.03097766118774</v>
       </c>
       <c r="F3">
-        <v>3.734918984258046</v>
+        <v>16.49789586902132</v>
       </c>
       <c r="G3">
-        <v>40.18479694228659</v>
+        <v>180.6458739120486</v>
       </c>
       <c r="H3">
-        <v>0.9855280075657108</v>
+        <v>4.434876034045697</v>
       </c>
       <c r="I3">
-        <v>144.0059168747048</v>
+        <v>493.7316590523611</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>87.25457481687125</v>
+        <v>235.6044864576624</v>
       </c>
       <c r="C4">
-        <v>1.385580235582683</v>
+        <v>6.235111060122074</v>
       </c>
       <c r="D4">
-        <v>6.076354859597021</v>
+        <v>27.25339680489193</v>
       </c>
       <c r="E4">
-        <v>5.483104318022007</v>
+        <v>24.67396943109902</v>
       </c>
       <c r="F4">
-        <v>3.535343160671739</v>
+        <v>15.61632891418813</v>
       </c>
       <c r="G4">
-        <v>20.09239847114329</v>
+        <v>90.32293695602432</v>
       </c>
       <c r="H4">
-        <v>0.9855280075657108</v>
+        <v>4.434876034045697</v>
       </c>
       <c r="I4">
-        <v>124.8128838694537</v>
+        <v>404.1411056580336</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>94.73668211516542</v>
+        <v>255.8076454477267</v>
       </c>
       <c r="C5">
-        <v>1.255682088496807</v>
+        <v>5.65056939823563</v>
       </c>
       <c r="D5">
-        <v>9.510816301977943</v>
+        <v>42.65749065113519</v>
       </c>
       <c r="E5">
-        <v>6.537547456103161</v>
+        <v>29.41896355246422</v>
       </c>
       <c r="F5">
-        <v>2.622996538562902</v>
+        <v>11.58630854923635</v>
       </c>
       <c r="G5">
-        <v>13.00096371662213</v>
+        <v>58.44425332448633</v>
       </c>
       <c r="H5">
-        <v>1.576844812105137</v>
+        <v>7.095801654473116</v>
       </c>
       <c r="I5">
-        <v>129.2415330290335</v>
+        <v>410.6610325777576</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>113.6620123402624</v>
+        <v>306.9097534814192</v>
       </c>
       <c r="C6">
-        <v>1.428879617944642</v>
+        <v>6.429958280750889</v>
       </c>
       <c r="D6">
-        <v>8.718248276813114</v>
+        <v>39.10269976354058</v>
       </c>
       <c r="E6">
-        <v>4.639549807557082</v>
+        <v>20.87797413400687</v>
       </c>
       <c r="F6">
-        <v>2.081290731685781</v>
+        <v>9.193483957546231</v>
       </c>
       <c r="G6">
-        <v>7.682387650731257</v>
+        <v>34.53524060083282</v>
       </c>
       <c r="H6">
-        <v>0.3942112030262843</v>
+        <v>1.773950413618279</v>
       </c>
       <c r="I6">
-        <v>138.6065796280205</v>
+        <v>418.8230606317148</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>98.58776675399326</v>
+        <v>266.2063302220247</v>
       </c>
       <c r="C7">
-        <v>0.3030956765337119</v>
+        <v>1.363930544401704</v>
       </c>
       <c r="D7">
-        <v>8.454058935091508</v>
+        <v>37.91776946767572</v>
       </c>
       <c r="E7">
-        <v>7.381101966568083</v>
+        <v>33.21495884955637</v>
       </c>
       <c r="F7">
-        <v>1.197454941517847</v>
+        <v>5.289401728999205</v>
       </c>
       <c r="G7">
-        <v>5.909528962100969</v>
+        <v>26.56556969294832</v>
       </c>
       <c r="H7">
-        <v>0.3942112030262843</v>
+        <v>1.773950413618279</v>
       </c>
       <c r="I7">
-        <v>122.2272184388317</v>
+        <v>372.3319109192243</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>78.67215762176917</v>
+        <v>212.4302746749415</v>
       </c>
       <c r="C8">
-        <v>1.12578394141093</v>
+        <v>5.066027736349185</v>
       </c>
       <c r="D8">
-        <v>4.491218809267362</v>
+        <v>20.14381502970274</v>
       </c>
       <c r="E8">
-        <v>6.115770200870699</v>
+        <v>27.52096590391815</v>
       </c>
       <c r="F8">
-        <v>1.368519933163253</v>
+        <v>6.045030547427663</v>
       </c>
       <c r="G8">
-        <v>7.091434754521161</v>
+        <v>31.87868363153799</v>
       </c>
       <c r="H8">
-        <v>0.7884224060525685</v>
+        <v>3.547900827236558</v>
       </c>
       <c r="I8">
-        <v>99.65330766705516</v>
+        <v>306.6326983511137</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>69.09946151953991</v>
+        <v>186.5821153788298</v>
       </c>
       <c r="C9">
-        <v>1.731975294478354</v>
+        <v>7.793888825152594</v>
       </c>
       <c r="D9">
-        <v>5.283786834432191</v>
+        <v>23.69860591729734</v>
       </c>
       <c r="E9">
-        <v>9.279099615114164</v>
+        <v>41.75594826801375</v>
       </c>
       <c r="F9">
-        <v>0.826814126286132</v>
+        <v>3.652205955737547</v>
       </c>
       <c r="G9">
-        <v>10.04619923557165</v>
+        <v>45.16146847801216</v>
       </c>
       <c r="H9">
-        <v>0.3942112030262843</v>
+        <v>1.773950413618279</v>
       </c>
       <c r="I9">
-        <v>96.6615478284487</v>
+        <v>310.4181832366614</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>60.84713729348024</v>
+        <v>164.2992194339059</v>
       </c>
       <c r="C10">
-        <v>0.7360895001533004</v>
+        <v>3.312402750689852</v>
       </c>
       <c r="D10">
-        <v>3.962840125824143</v>
+        <v>17.773954437973</v>
       </c>
       <c r="E10">
-        <v>5.693992945638238</v>
+        <v>25.62296825537207</v>
       </c>
       <c r="F10">
-        <v>0.798303294345231</v>
+        <v>3.526267819332805</v>
       </c>
       <c r="G10">
-        <v>5.318576065890873</v>
+        <v>23.9090127236535</v>
       </c>
       <c r="H10">
-        <v>1.182633609078853</v>
+        <v>5.321851240854837</v>
       </c>
       <c r="I10">
-        <v>78.53957283441086</v>
+        <v>243.765676661782</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>34.32966878040837</v>
+        <v>92.69684713088358</v>
       </c>
       <c r="C11">
-        <v>0.3463950588956708</v>
+        <v>1.558777765030519</v>
       </c>
       <c r="D11">
-        <v>1.320946708608048</v>
+        <v>5.924651479324336</v>
       </c>
       <c r="E11">
-        <v>3.795995297092157</v>
+        <v>17.08197883691471</v>
       </c>
       <c r="F11">
-        <v>0.7127707985225276</v>
+        <v>3.148453410118574</v>
       </c>
       <c r="G11">
-        <v>2.954764481050484</v>
+        <v>13.28278484647416</v>
       </c>
       <c r="H11">
-        <v>0.9855280075657108</v>
+        <v>4.434876034045697</v>
       </c>
       <c r="I11">
-        <v>44.44606913214297</v>
+        <v>138.1283695027916</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>23.54663179169036</v>
+        <v>63.58052976284964</v>
       </c>
       <c r="C12">
-        <v>0.3463950588956708</v>
+        <v>1.558777765030519</v>
       </c>
       <c r="D12">
-        <v>1.056757366886439</v>
+        <v>4.739721183459465</v>
       </c>
       <c r="E12">
-        <v>1.476220393313618</v>
+        <v>6.642991769911276</v>
       </c>
       <c r="F12">
-        <v>0.3421299832908133</v>
+        <v>1.511257636856916</v>
       </c>
       <c r="G12">
-        <v>2.363811584840387</v>
+        <v>10.62622787717934</v>
       </c>
       <c r="H12">
-        <v>0.3942112030262843</v>
+        <v>1.773950413618279</v>
       </c>
       <c r="I12">
-        <v>29.52615738194357</v>
+        <v>90.43345640890543</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>14.52409063786509</v>
+        <v>39.21789686306615</v>
       </c>
       <c r="C13">
-        <v>0.3030956765337119</v>
+        <v>1.363930544401704</v>
       </c>
       <c r="D13">
-        <v>0.2641893417216096</v>
+        <v>1.184930295864866</v>
       </c>
       <c r="F13">
-        <v>0.3136191513499122</v>
+        <v>1.385319500452173</v>
       </c>
       <c r="G13">
-        <v>1.77285868863029</v>
+        <v>7.969670907884498</v>
       </c>
       <c r="H13">
-        <v>0.1971056015131421</v>
+        <v>0.8869752068091395</v>
       </c>
       <c r="I13">
-        <v>17.37495909761375</v>
+        <v>52.00872331847853</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>11.77331589584518</v>
+        <v>31.79026488142482</v>
       </c>
       <c r="C14">
-        <v>0.3896944412576296</v>
+        <v>1.753624985659334</v>
       </c>
       <c r="D14">
-        <v>1.320946708608048</v>
+        <v>5.924651479324336</v>
       </c>
       <c r="F14">
-        <v>0.3991516471726155</v>
+        <v>1.763133909666402</v>
       </c>
       <c r="G14">
-        <v>1.77285868863029</v>
+        <v>7.969670907884498</v>
       </c>
       <c r="H14">
-        <v>0.3942112030262843</v>
+        <v>1.773950413618279</v>
       </c>
       <c r="I14">
-        <v>16.05017858454005</v>
+        <v>50.97529657757767</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,22 +809,22 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>8.802479174463688</v>
+        <v>23.7684223412522</v>
       </c>
       <c r="C15">
-        <v>0.2164969118097943</v>
+        <v>0.9742361031440743</v>
       </c>
       <c r="D15">
-        <v>0.5283786834432193</v>
+        <v>2.369860591729732</v>
       </c>
       <c r="F15">
-        <v>0.2565974874681099</v>
+        <v>1.133443227642687</v>
       </c>
       <c r="G15">
-        <v>3.54571737726058</v>
+        <v>15.939341815769</v>
       </c>
       <c r="I15">
-        <v>13.34966963444539</v>
+        <v>44.18530407953769</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,25 +832,25 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>7.59213828797493</v>
+        <v>20.50026426933002</v>
       </c>
       <c r="C16">
-        <v>0.2164969118097943</v>
+        <v>0.9742361031440743</v>
       </c>
       <c r="D16">
-        <v>0.5283786834432193</v>
+        <v>2.369860591729732</v>
       </c>
       <c r="E16">
-        <v>1.054443138081155</v>
+        <v>4.744994121365197</v>
       </c>
       <c r="F16">
-        <v>0.2280866555272089</v>
+        <v>1.007505091237944</v>
       </c>
       <c r="G16">
-        <v>2.954764481050484</v>
+        <v>13.28278484647416</v>
       </c>
       <c r="I16">
-        <v>12.57430815788679</v>
+        <v>42.87964502328113</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -858,25 +858,25 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>14.52409063786509</v>
+        <v>39.21789686306615</v>
       </c>
       <c r="C17">
-        <v>0.2597962941717531</v>
+        <v>1.169083323772889</v>
       </c>
       <c r="D17">
-        <v>2.113514733772877</v>
+        <v>9.47944236691893</v>
       </c>
       <c r="E17">
-        <v>0.210888627616231</v>
+        <v>0.9489988242730393</v>
       </c>
       <c r="F17">
-        <v>0.4561733110544178</v>
+        <v>2.015010182475888</v>
       </c>
       <c r="G17">
-        <v>2.954764481050484</v>
+        <v>13.28278484647416</v>
       </c>
       <c r="I17">
-        <v>20.51922808553085</v>
+        <v>66.11321640698107</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -884,28 +884,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>48.41363545955025</v>
+        <v>130.7263228768871</v>
       </c>
       <c r="C18">
-        <v>0.3896944412576296</v>
+        <v>1.753624985659334</v>
       </c>
       <c r="D18">
-        <v>6.076354859597021</v>
+        <v>27.25339680489193</v>
       </c>
       <c r="E18">
-        <v>1.687109020929848</v>
+        <v>7.591990594184314</v>
       </c>
       <c r="F18">
-        <v>1.397030765104155</v>
+        <v>6.170968683832406</v>
       </c>
       <c r="G18">
-        <v>11.22810502799184</v>
+        <v>50.47458241660186</v>
       </c>
       <c r="H18">
-        <v>0.1971056015131421</v>
+        <v>0.8869752068091395</v>
       </c>
       <c r="I18">
-        <v>69.38903517594389</v>
+        <v>224.8578615688661</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -913,28 +913,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>76.80163079719571</v>
+        <v>207.3794849274254</v>
       </c>
       <c r="C19">
-        <v>0.3030956765337119</v>
+        <v>1.363930544401704</v>
       </c>
       <c r="D19">
-        <v>6.868922884761849</v>
+        <v>30.80818769248653</v>
       </c>
       <c r="E19">
-        <v>9.068210987497933</v>
+        <v>40.80694944374069</v>
       </c>
       <c r="F19">
-        <v>2.366399051094792</v>
+        <v>10.45286532159366</v>
       </c>
       <c r="G19">
-        <v>17.13763399009281</v>
+        <v>77.04015210955016</v>
       </c>
       <c r="H19">
-        <v>0.5913168045394265</v>
+        <v>2.660925620427419</v>
       </c>
       <c r="I19">
-        <v>113.1372101917162</v>
+        <v>370.5124956596256</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -942,25 +942,25 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>93.30627924931505</v>
+        <v>251.9452768172732</v>
       </c>
       <c r="C20">
-        <v>0.7360895001533004</v>
+        <v>3.312402750689852</v>
       </c>
       <c r="D20">
-        <v>5.547976176153798</v>
+        <v>24.88353621316219</v>
       </c>
       <c r="E20">
-        <v>8.013767849416778</v>
+        <v>36.06195532237549</v>
       </c>
       <c r="F20">
-        <v>1.853204076158572</v>
+        <v>8.185978866308297</v>
       </c>
       <c r="G20">
-        <v>13.00096371662213</v>
+        <v>58.44425332448633</v>
       </c>
       <c r="I20">
-        <v>122.4582805678196</v>
+        <v>382.8334032942953</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -968,28 +968,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>100.5683245682476</v>
+        <v>271.5542252488064</v>
       </c>
       <c r="C21">
-        <v>0.9958857943250535</v>
+        <v>4.481486074462741</v>
       </c>
       <c r="D21">
-        <v>8.982437618534723</v>
+        <v>40.28763005940547</v>
       </c>
       <c r="E21">
-        <v>6.537547456103161</v>
+        <v>29.41896355246422</v>
       </c>
       <c r="F21">
-        <v>2.223844891390287</v>
+        <v>9.823174639569952</v>
       </c>
       <c r="G21">
-        <v>15.95572819767261</v>
+        <v>71.7270381709605</v>
       </c>
       <c r="H21">
-        <v>1.773950413618279</v>
+        <v>7.982776861282256</v>
       </c>
       <c r="I21">
-        <v>137.0377189398917</v>
+        <v>435.2752946069515</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -997,28 +997,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>88.5749466930408</v>
+        <v>239.1697498088502</v>
       </c>
       <c r="C22">
-        <v>1.385580235582683</v>
+        <v>6.235111060122074</v>
       </c>
       <c r="D22">
-        <v>11.62433103575082</v>
+        <v>52.13693301805414</v>
       </c>
       <c r="E22">
-        <v>5.483104318022007</v>
+        <v>24.67396943109902</v>
       </c>
       <c r="F22">
-        <v>3.649386488435343</v>
+        <v>16.12008145980711</v>
       </c>
       <c r="G22">
-        <v>36.04812666881591</v>
+        <v>162.0499751269849</v>
       </c>
       <c r="H22">
-        <v>0.7884224060525685</v>
+        <v>3.547900827236558</v>
       </c>
       <c r="I22">
-        <v>147.5538978457001</v>
+        <v>503.933720732154</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1026,28 +1026,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>73.94082506549495</v>
+        <v>199.6547476665185</v>
       </c>
       <c r="C23">
-        <v>1.255682088496807</v>
+        <v>5.65056939823563</v>
       </c>
       <c r="D23">
-        <v>5.547976176153798</v>
+        <v>24.88353621316219</v>
       </c>
       <c r="E23">
-        <v>4.850438435173313</v>
+        <v>21.8269729582799</v>
       </c>
       <c r="F23">
-        <v>3.848962312021651</v>
+        <v>17.0016484146403</v>
       </c>
       <c r="G23">
-        <v>46.09432590438756</v>
+        <v>207.2114436049969</v>
       </c>
       <c r="H23">
-        <v>1.576844812105137</v>
+        <v>7.095801654473116</v>
       </c>
       <c r="I23">
-        <v>137.1150547938332</v>
+        <v>483.3247199103066</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1055,28 +1055,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>68.76936855049756</v>
+        <v>185.6907995410327</v>
       </c>
       <c r="C24">
-        <v>1.255682088496807</v>
+        <v>5.65056939823563</v>
       </c>
       <c r="D24">
-        <v>6.34054420131863</v>
+        <v>28.43832710075679</v>
       </c>
       <c r="E24">
-        <v>4.639549807557082</v>
+        <v>20.87797413400687</v>
       </c>
       <c r="F24">
-        <v>3.677897320376244</v>
+        <v>16.24601959621184</v>
       </c>
       <c r="G24">
-        <v>54.958619347539</v>
+        <v>247.0597981444195</v>
       </c>
       <c r="H24">
-        <v>0.9855280075657108</v>
+        <v>4.434876034045697</v>
       </c>
       <c r="I24">
-        <v>140.627189323351</v>
+        <v>508.3983639487091</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1084,28 +1084,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>73.83079407581417</v>
+        <v>199.3576423872528</v>
       </c>
       <c r="C25">
-        <v>1.688675912116395</v>
+        <v>7.599041604523776</v>
       </c>
       <c r="D25">
-        <v>7.661490909926677</v>
+        <v>34.36297858008112</v>
       </c>
       <c r="E25">
-        <v>4.850438435173313</v>
+        <v>21.8269729582799</v>
       </c>
       <c r="F25">
-        <v>3.022148185735519</v>
+        <v>13.34944245890275</v>
       </c>
       <c r="G25">
-        <v>56.73147803616929</v>
+        <v>255.0294690523039</v>
       </c>
       <c r="H25">
-        <v>0.1971056015131421</v>
+        <v>0.8869752068091395</v>
       </c>
       <c r="I25">
-        <v>147.9821311564485</v>
+        <v>532.4125222481533</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1113,28 +1113,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>82.19314929155466</v>
+        <v>221.9376436114426</v>
       </c>
       <c r="C26">
-        <v>2.035070971012066</v>
+        <v>9.157819369554298</v>
       </c>
       <c r="D26">
-        <v>10.03919498542116</v>
+        <v>45.02735124286492</v>
       </c>
       <c r="E26">
-        <v>4.428661179940852</v>
+        <v>19.92897530973383</v>
       </c>
       <c r="F26">
-        <v>3.535343160671739</v>
+        <v>15.61632891418813</v>
       </c>
       <c r="G26">
-        <v>52.59480776269861</v>
+        <v>236.4335702672402</v>
       </c>
       <c r="H26">
-        <v>0.7884224060525685</v>
+        <v>3.547900827236558</v>
       </c>
       <c r="I26">
-        <v>155.6146497573517</v>
+        <v>551.6495895422603</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1142,28 +1142,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>81.20287038442754</v>
+        <v>219.2636960980516</v>
       </c>
       <c r="C27">
-        <v>1.86187344156423</v>
+        <v>8.378430487039036</v>
       </c>
       <c r="D27">
-        <v>9.246626960256332</v>
+        <v>41.4725603552703</v>
       </c>
       <c r="E27">
-        <v>4.006883924708389</v>
+        <v>18.03097766118774</v>
       </c>
       <c r="F27">
-        <v>3.56385399261264</v>
+        <v>15.74226705059287</v>
       </c>
       <c r="G27">
-        <v>36.04812666881591</v>
+        <v>162.0499751269849</v>
       </c>
       <c r="H27">
-        <v>3.350795225723417</v>
+        <v>15.07857851575537</v>
       </c>
       <c r="I27">
-        <v>139.2810305981085</v>
+        <v>480.0164852948819</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1171,28 +1171,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>84.72386205421297</v>
+        <v>228.7710650345524</v>
       </c>
       <c r="C28">
-        <v>1.818574059202272</v>
+        <v>8.183583266410222</v>
       </c>
       <c r="D28">
-        <v>10.03919498542116</v>
+        <v>45.02735124286492</v>
       </c>
       <c r="E28">
-        <v>5.061327062789545</v>
+        <v>22.77597178255295</v>
       </c>
       <c r="F28">
-        <v>3.449810664849035</v>
+        <v>15.2385145049739</v>
       </c>
       <c r="G28">
-        <v>44.32146721575726</v>
+        <v>199.2417726971125</v>
       </c>
       <c r="H28">
-        <v>1.379739210591995</v>
+        <v>6.208826447663977</v>
       </c>
       <c r="I28">
-        <v>150.7939752528243</v>
+        <v>525.4470849761309</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1200,28 +1200,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>79.22231257017323</v>
+        <v>213.9158010712699</v>
       </c>
       <c r="C29">
-        <v>1.558777765030519</v>
+        <v>7.014499942637335</v>
       </c>
       <c r="D29">
-        <v>8.982437618534723</v>
+        <v>40.28763005940547</v>
       </c>
       <c r="E29">
-        <v>5.693992945638238</v>
+        <v>25.62296825537207</v>
       </c>
       <c r="F29">
-        <v>2.366399051094792</v>
+        <v>10.45286532159366</v>
       </c>
       <c r="G29">
-        <v>36.04812666881591</v>
+        <v>162.0499751269849</v>
       </c>
       <c r="H29">
-        <v>0.9855280075657108</v>
+        <v>4.434876034045697</v>
       </c>
       <c r="I29">
-        <v>134.8575746268531</v>
+        <v>463.778615811309</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1229,28 +1229,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>90.11538054857198</v>
+        <v>243.3292237185693</v>
       </c>
       <c r="C30">
-        <v>0.6927901177913416</v>
+        <v>3.117555530061037</v>
       </c>
       <c r="D30">
-        <v>10.30338432714277</v>
+        <v>46.21228153872979</v>
       </c>
       <c r="E30">
-        <v>4.006883924708389</v>
+        <v>18.03097766118774</v>
       </c>
       <c r="F30">
-        <v>2.280866555272089</v>
+        <v>10.07505091237944</v>
       </c>
       <c r="G30">
-        <v>34.27526798018561</v>
+        <v>154.0803042191003</v>
       </c>
       <c r="H30">
-        <v>0.3942112030262843</v>
+        <v>1.773950413618279</v>
       </c>
       <c r="I30">
-        <v>142.0687846566985</v>
+        <v>476.6193439936459</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1258,25 +1258,25 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>87.80472976527528</v>
+        <v>237.0900128539907</v>
       </c>
       <c r="C31">
-        <v>0.0865987647239177</v>
+        <v>0.3896944412576296</v>
       </c>
       <c r="D31">
-        <v>4.491218809267362</v>
+        <v>20.14381502970274</v>
       </c>
       <c r="E31">
-        <v>7.591990594184314</v>
+        <v>34.16395767382942</v>
       </c>
       <c r="F31">
-        <v>1.197454941517847</v>
+        <v>5.289401728999205</v>
       </c>
       <c r="G31">
-        <v>26.59288032945437</v>
+        <v>119.5450636182675</v>
       </c>
       <c r="I31">
-        <v>127.7648732044231</v>
+        <v>416.6219453460473</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1284,25 +1284,25 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>78.12200267336523</v>
+        <v>210.9447482786133</v>
       </c>
       <c r="C32">
-        <v>0.3896944412576296</v>
+        <v>1.753624985659334</v>
       </c>
       <c r="D32">
-        <v>5.812165517875408</v>
+        <v>26.06846650902707</v>
       </c>
       <c r="E32">
-        <v>8.857322359881703</v>
+        <v>39.85795061946765</v>
       </c>
       <c r="F32">
-        <v>1.254476605399649</v>
+        <v>5.541278001808691</v>
       </c>
       <c r="G32">
-        <v>20.68335136735339</v>
+        <v>92.97949392531916</v>
       </c>
       <c r="I32">
-        <v>115.119012965133</v>
+        <v>377.1455623198952</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1310,25 +1310,25 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>62.27754015933056</v>
+        <v>168.1615880643593</v>
       </c>
       <c r="C33">
-        <v>0.6927901177913416</v>
+        <v>3.117555530061037</v>
       </c>
       <c r="D33">
-        <v>6.076354859597021</v>
+        <v>27.25339680489193</v>
       </c>
       <c r="E33">
-        <v>7.381101966568083</v>
+        <v>33.21495884955637</v>
       </c>
       <c r="F33">
-        <v>0.7127707985225276</v>
+        <v>3.148453410118574</v>
       </c>
       <c r="G33">
-        <v>8.864293443151453</v>
+        <v>39.84835453942249</v>
       </c>
       <c r="I33">
-        <v>86.00485134496098</v>
+        <v>274.7443071984097</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1336,25 +1336,25 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>49.07382139763504</v>
+        <v>132.5089545524809</v>
       </c>
       <c r="C34">
-        <v>0.3896944412576296</v>
+        <v>1.753624985659334</v>
       </c>
       <c r="D34">
-        <v>3.698650784102534</v>
+        <v>16.58902414210813</v>
       </c>
       <c r="E34">
-        <v>6.115770200870699</v>
+        <v>27.52096590391815</v>
       </c>
       <c r="F34">
-        <v>0.3706408152317144</v>
+        <v>1.637195773261658</v>
       </c>
       <c r="G34">
-        <v>8.273340546941357</v>
+        <v>37.19179757012765</v>
       </c>
       <c r="I34">
-        <v>67.92191818603898</v>
+        <v>217.2015629275558</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1362,25 +1362,25 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>32.23907997647326</v>
+        <v>87.05184682483619</v>
       </c>
       <c r="C35">
-        <v>0.3030956765337119</v>
+        <v>1.363930544401704</v>
       </c>
       <c r="D35">
-        <v>1.849325392051267</v>
+        <v>8.294512071054065</v>
       </c>
       <c r="E35">
-        <v>4.217772552324621</v>
+        <v>18.97997648546079</v>
       </c>
       <c r="F35">
-        <v>0.5987274707589235</v>
+        <v>2.644700864499602</v>
       </c>
       <c r="G35">
-        <v>12.41001082041203</v>
+        <v>55.78769635519149</v>
       </c>
       <c r="I35">
-        <v>51.61801188855382</v>
+        <v>174.1226631454438</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1388,28 +1388,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>23.10650783296718</v>
+        <v>62.39210864578703</v>
       </c>
       <c r="C36">
-        <v>0.1731975294478354</v>
+        <v>0.7793888825152593</v>
       </c>
       <c r="D36">
-        <v>1.585136050329657</v>
+        <v>7.109581775189199</v>
       </c>
       <c r="E36">
-        <v>1.687109020929848</v>
+        <v>7.591990594184314</v>
       </c>
       <c r="F36">
-        <v>0.4276624791135168</v>
+        <v>1.889072046071145</v>
       </c>
       <c r="G36">
-        <v>6.500481858311065</v>
+        <v>29.22212666224316</v>
       </c>
       <c r="H36">
-        <v>0.1971056015131421</v>
+        <v>0.8869752068091395</v>
       </c>
       <c r="I36">
-        <v>33.67720037261225</v>
+        <v>109.8712438127992</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1417,22 +1417,22 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>13.97393568946111</v>
+        <v>37.73237046673787</v>
       </c>
       <c r="C37">
-        <v>0.1298981470858765</v>
+        <v>0.5845416618864444</v>
       </c>
       <c r="E37">
-        <v>0.210888627616231</v>
+        <v>0.9489988242730393</v>
       </c>
       <c r="F37">
-        <v>0.4276624791135168</v>
+        <v>1.889072046071145</v>
       </c>
       <c r="G37">
-        <v>7.091434754521161</v>
+        <v>31.87868363153799</v>
       </c>
       <c r="I37">
-        <v>21.83381969779789</v>
+        <v>73.03366663050649</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1440,25 +1440,25 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>9.902789071271654</v>
+        <v>26.73947513390873</v>
       </c>
       <c r="C38">
-        <v>0.2597962941717531</v>
+        <v>1.169083323772889</v>
       </c>
       <c r="D38">
-        <v>0.7925680251648287</v>
+        <v>3.554790887594599</v>
       </c>
       <c r="E38">
-        <v>0.210888627616231</v>
+        <v>0.9489988242730393</v>
       </c>
       <c r="F38">
-        <v>0.4561733110544178</v>
+        <v>2.015010182475888</v>
       </c>
       <c r="G38">
-        <v>2.363811584840387</v>
+        <v>10.62622787717934</v>
       </c>
       <c r="I38">
-        <v>13.98602691411927</v>
+        <v>45.05358622920448</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1466,22 +1466,22 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>6.821921360209361</v>
+        <v>18.42052731447045</v>
       </c>
       <c r="C39">
-        <v>0.0865987647239177</v>
+        <v>0.3896944412576296</v>
       </c>
       <c r="D39">
-        <v>1.320946708608048</v>
+        <v>5.924651479324336</v>
       </c>
       <c r="F39">
-        <v>0.05702166388180223</v>
+        <v>0.251876272809486</v>
       </c>
       <c r="G39">
-        <v>5.909528962100969</v>
+        <v>26.56556969294832</v>
       </c>
       <c r="I39">
-        <v>14.1960174595241</v>
+        <v>51.55231920081022</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,25 +1489,25 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>5.501549484039803</v>
+        <v>14.85526396328263</v>
       </c>
       <c r="C40">
-        <v>0.1731975294478354</v>
+        <v>0.7793888825152593</v>
       </c>
       <c r="D40">
-        <v>0.2641893417216096</v>
+        <v>1.184930295864866</v>
       </c>
       <c r="E40">
-        <v>1.054443138081155</v>
+        <v>4.744994121365197</v>
       </c>
       <c r="F40">
-        <v>0.2565974874681099</v>
+        <v>1.133443227642687</v>
       </c>
       <c r="G40">
-        <v>2.954764481050484</v>
+        <v>13.28278484647416</v>
       </c>
       <c r="I40">
-        <v>10.204741461809</v>
+        <v>35.98080533714479</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1515,25 +1515,25 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>14.52409063786509</v>
+        <v>39.21789686306615</v>
       </c>
       <c r="C41">
-        <v>0.1731975294478354</v>
+        <v>0.7793888825152593</v>
       </c>
       <c r="D41">
-        <v>1.056757366886439</v>
+        <v>4.739721183459465</v>
       </c>
       <c r="E41">
-        <v>0.6326658828486932</v>
+        <v>2.846996472819119</v>
       </c>
       <c r="F41">
-        <v>0.3706408152317144</v>
+        <v>1.637195773261658</v>
       </c>
       <c r="G41">
-        <v>2.363811584840387</v>
+        <v>10.62622787717934</v>
       </c>
       <c r="I41">
-        <v>19.12116381712016</v>
+        <v>59.84742705230099</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1541,25 +1541,25 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>38.7309083676402</v>
+        <v>104.5810583015098</v>
       </c>
       <c r="C42">
-        <v>0.04329938236195885</v>
+        <v>0.1948472206288148</v>
       </c>
       <c r="D42">
-        <v>4.755408150988972</v>
+        <v>21.3287453255676</v>
       </c>
       <c r="E42">
-        <v>2.319774903778541</v>
+        <v>10.43898706700344</v>
       </c>
       <c r="F42">
-        <v>1.197454941517847</v>
+        <v>5.289401728999205</v>
       </c>
       <c r="G42">
-        <v>8.864293443151453</v>
+        <v>39.84835453942249</v>
       </c>
       <c r="I42">
-        <v>55.91113918943898</v>
+        <v>181.6813941831313</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1567,25 +1567,25 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>63.59791203550012</v>
+        <v>171.7268514155471</v>
       </c>
       <c r="C43">
-        <v>0.2597962941717531</v>
+        <v>1.169083323772889</v>
       </c>
       <c r="D43">
-        <v>5.547976176153798</v>
+        <v>24.88353621316219</v>
       </c>
       <c r="E43">
-        <v>8.013767849416778</v>
+        <v>36.06195532237549</v>
       </c>
       <c r="F43">
-        <v>2.480442378858396</v>
+        <v>10.95661786721264</v>
       </c>
       <c r="G43">
-        <v>16.54668109388271</v>
+        <v>74.38359514025531</v>
       </c>
       <c r="I43">
-        <v>96.44657582798355</v>
+        <v>319.1816392823256</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,28 +1593,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>90.44547351761437</v>
+        <v>244.2205395563664</v>
       </c>
       <c r="C44">
-        <v>0.4329938236195885</v>
+        <v>1.948472206288149</v>
       </c>
       <c r="D44">
-        <v>4.491218809267362</v>
+        <v>20.14381502970274</v>
       </c>
       <c r="E44">
-        <v>8.013767849416778</v>
+        <v>36.06195532237549</v>
       </c>
       <c r="F44">
-        <v>1.311498269281451</v>
+        <v>5.793154274618177</v>
       </c>
       <c r="G44">
-        <v>12.41001082041203</v>
+        <v>55.78769635519149</v>
       </c>
       <c r="H44">
-        <v>0.3942112030262843</v>
+        <v>1.773950413618279</v>
       </c>
       <c r="I44">
-        <v>117.4991742926379</v>
+        <v>365.7295831581607</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1622,28 +1622,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>86.70441986846733</v>
+        <v>234.118960061334</v>
       </c>
       <c r="C45">
-        <v>1.385580235582683</v>
+        <v>6.235111060122074</v>
       </c>
       <c r="D45">
-        <v>6.604733543040238</v>
+        <v>29.62325739662166</v>
       </c>
       <c r="E45">
-        <v>4.639549807557082</v>
+        <v>20.87797413400687</v>
       </c>
       <c r="F45">
-        <v>2.195334059449386</v>
+        <v>9.697236503165207</v>
       </c>
       <c r="G45">
-        <v>22.45621005598368</v>
+        <v>100.9491648332037</v>
       </c>
       <c r="H45">
-        <v>0.9855280075657108</v>
+        <v>4.434876034045697</v>
       </c>
       <c r="I45">
-        <v>124.9713555776461</v>
+        <v>405.9365800224993</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1651,28 +1651,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>81.86305632251231</v>
+        <v>221.0463277736455</v>
       </c>
       <c r="C46">
-        <v>0.8659876472391771</v>
+        <v>3.896944412576297</v>
       </c>
       <c r="D46">
-        <v>7.133112226483457</v>
+        <v>31.99311798835141</v>
       </c>
       <c r="E46">
-        <v>6.748436083719393</v>
+        <v>30.36796237673726</v>
       </c>
       <c r="F46">
-        <v>2.908104857971913</v>
+        <v>12.84568991328378</v>
       </c>
       <c r="G46">
-        <v>30.13859770671493</v>
+        <v>135.4844054340365</v>
       </c>
       <c r="H46">
-        <v>0.7884224060525685</v>
+        <v>3.547900827236558</v>
       </c>
       <c r="I46">
-        <v>130.4457172506937</v>
+        <v>439.1823487258673</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1680,28 +1680,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>63.37785005613856</v>
+        <v>171.1326408570158</v>
       </c>
       <c r="C47">
-        <v>1.385580235582683</v>
+        <v>6.235111060122074</v>
       </c>
       <c r="D47">
-        <v>5.283786834432191</v>
+        <v>23.69860591729734</v>
       </c>
       <c r="E47">
-        <v>5.693992945638238</v>
+        <v>25.62296825537207</v>
       </c>
       <c r="F47">
-        <v>3.592364824553541</v>
+        <v>15.86820518699761</v>
       </c>
       <c r="G47">
-        <v>32.50240929155531</v>
+        <v>146.1106333112158</v>
       </c>
       <c r="H47">
-        <v>2.956584022697132</v>
+        <v>13.30462810213709</v>
       </c>
       <c r="I47">
-        <v>114.7925682105977</v>
+        <v>401.9727926901578</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1709,28 +1709,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>69.97970943698627</v>
+        <v>188.958957612955</v>
       </c>
       <c r="C48">
-        <v>1.645376529754436</v>
+        <v>7.404194383894963</v>
       </c>
       <c r="D48">
-        <v>8.982437618534723</v>
+        <v>40.28763005940547</v>
       </c>
       <c r="E48">
-        <v>5.061327062789545</v>
+        <v>22.77597178255295</v>
       </c>
       <c r="F48">
-        <v>3.022148185735519</v>
+        <v>13.34944245890275</v>
       </c>
       <c r="G48">
-        <v>24.82002164082407</v>
+        <v>111.575392710383</v>
       </c>
       <c r="H48">
-        <v>0.3942112030262843</v>
+        <v>1.773950413618279</v>
       </c>
       <c r="I48">
-        <v>113.9052316776508</v>
+        <v>386.1255394217123</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1738,28 +1738,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>73.83079407581417</v>
+        <v>199.3576423872528</v>
       </c>
       <c r="C49">
-        <v>1.688675912116395</v>
+        <v>7.599041604523776</v>
       </c>
       <c r="D49">
-        <v>7.661490909926677</v>
+        <v>34.36297858008112</v>
       </c>
       <c r="E49">
-        <v>4.850438435173313</v>
+        <v>21.8269729582799</v>
       </c>
       <c r="F49">
-        <v>3.022148185735519</v>
+        <v>13.34944245890275</v>
       </c>
       <c r="G49">
-        <v>56.73147803616929</v>
+        <v>255.0294690523039</v>
       </c>
       <c r="H49">
-        <v>0.1971056015131421</v>
+        <v>0.8869752068091395</v>
       </c>
       <c r="I49">
-        <v>147.9821311564485</v>
+        <v>532.4125222481533</v>
       </c>
     </row>
   </sheetData>
